--- a/biology/Médecine/Cachexie_aqueuse/Cachexie_aqueuse.xlsx
+++ b/biology/Médecine/Cachexie_aqueuse/Cachexie_aqueuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cachexie aqueuse est une maladie parasitaire du mouton provoquée par Dicrocoelium dendriticum, ou petite douve du foie.
 Elle est caractérisée par une anémie, et l'apparition d'œdèmes temporaires. L'hôte meurt par épuisement.
